--- a/Mat_Price_Test_Test/2600306/features.xlsx
+++ b/Mat_Price_Test_Test/2600306/features.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,81 @@
           <t>Price_Material_var</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EoD_Bestand_noSiBe_log1p</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DeficitPos_log1p</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMean_100_log1p</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMax_100_log1p</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMean_66_log1p</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMax_66_log1p</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMean_50_log1p</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMax_50_log1p</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMean_25_log1p</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMax_25_log1p</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Lag_EoD_Bestand_noSiBe_mean_7Tage</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Lag_EoD_Bestand_noSiBe_mean_28Tage</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Lag_EoD_Bestand_noSiBe_mean_wbzTage</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Lag_EoD_Bestand_noSiBe_mean_2xwbzTage</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>L_WBZ_BlockMinAbs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -495,7 +570,54 @@
       <c r="F2" t="n">
         <v>152</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.416857031155424</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5647.964285714285</v>
+      </c>
+      <c r="T2" t="n">
+        <v>4929.875</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2614.131578947368</v>
+      </c>
+      <c r="V2" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -518,7 +640,54 @@
       <c r="F3" t="n">
         <v>152</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.416857031155424</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5633.142857142857</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4967.539473684211</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2656.930921052632</v>
+      </c>
+      <c r="V3" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -541,7 +710,54 @@
       <c r="F4" t="n">
         <v>152</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.416857031155424</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5618.321428571428</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4932.835526315789</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2699.730263157895</v>
+      </c>
+      <c r="V4" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -564,7 +780,54 @@
       <c r="F5" t="n">
         <v>152</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.416857031155424</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5603.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4898.131578947368</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2745.21052631579</v>
+      </c>
+      <c r="V5" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -587,7 +850,54 @@
       <c r="F6" t="n">
         <v>152</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.416857031155424</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5588.678571428572</v>
+      </c>
+      <c r="T6" t="n">
+        <v>4863.427631578948</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2790.690789473684</v>
+      </c>
+      <c r="V6" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -610,7 +920,54 @@
       <c r="F7" t="n">
         <v>152</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.416857031155424</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5573.857142857143</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4828.723684210527</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2836.171052631579</v>
+      </c>
+      <c r="V7" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -633,7 +990,54 @@
       <c r="F8" t="n">
         <v>152</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.066324049889926</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5559.035714285715</v>
+      </c>
+      <c r="T8" t="n">
+        <v>4818.513157894737</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2881.651315789474</v>
+      </c>
+      <c r="V8" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -656,7 +1060,54 @@
       <c r="F9" t="n">
         <v>152</v>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.066324049889926</v>
+      </c>
+      <c r="K9" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O9" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5544.214285714285</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4808.302631578948</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2927.131578947368</v>
+      </c>
+      <c r="V9" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -679,7 +1130,54 @@
       <c r="F10" t="n">
         <v>152</v>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.066324049889926</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M10" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5529.392857142857</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4798.092105263157</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2972.611842105263</v>
+      </c>
+      <c r="V10" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -702,7 +1200,54 @@
       <c r="F11" t="n">
         <v>152</v>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.066324049889926</v>
+      </c>
+      <c r="K11" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5514.571428571428</v>
+      </c>
+      <c r="T11" t="n">
+        <v>4787.881578947368</v>
+      </c>
+      <c r="U11" t="n">
+        <v>3018.092105263158</v>
+      </c>
+      <c r="V11" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -725,7 +1270,54 @@
       <c r="F12" t="n">
         <v>152</v>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.066324049889926</v>
+      </c>
+      <c r="K12" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M12" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O12" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5499.75</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4777.671052631579</v>
+      </c>
+      <c r="U12" t="n">
+        <v>3063.572368421052</v>
+      </c>
+      <c r="V12" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -748,7 +1340,54 @@
       <c r="F13" t="n">
         <v>152</v>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.066324049889926</v>
+      </c>
+      <c r="K13" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5484.928571428572</v>
+      </c>
+      <c r="T13" t="n">
+        <v>4767.460526315789</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3109.052631578948</v>
+      </c>
+      <c r="V13" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -771,7 +1410,54 @@
       <c r="F14" t="n">
         <v>152</v>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.066324049889926</v>
+      </c>
+      <c r="K14" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5470.107142857143</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4757.25</v>
+      </c>
+      <c r="U14" t="n">
+        <v>3154.532894736842</v>
+      </c>
+      <c r="V14" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -794,7 +1480,54 @@
       <c r="F15" t="n">
         <v>152</v>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.066324049889926</v>
+      </c>
+      <c r="K15" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M15" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O15" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5455.285714285715</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4747.039473684211</v>
+      </c>
+      <c r="U15" t="n">
+        <v>3200.013157894737</v>
+      </c>
+      <c r="V15" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -817,7 +1550,54 @@
       <c r="F16" t="n">
         <v>152</v>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.066324049889926</v>
+      </c>
+      <c r="K16" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5440.464285714285</v>
+      </c>
+      <c r="T16" t="n">
+        <v>4736.828947368421</v>
+      </c>
+      <c r="U16" t="n">
+        <v>3245.493421052632</v>
+      </c>
+      <c r="V16" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -840,7 +1620,54 @@
       <c r="F17" t="n">
         <v>152</v>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H17" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.066324049889926</v>
+      </c>
+      <c r="K17" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5425.642857142857</v>
+      </c>
+      <c r="T17" t="n">
+        <v>4726.618421052632</v>
+      </c>
+      <c r="U17" t="n">
+        <v>3290.973684210526</v>
+      </c>
+      <c r="V17" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -863,7 +1690,54 @@
       <c r="F18" t="n">
         <v>152</v>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.066324049889926</v>
+      </c>
+      <c r="K18" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O18" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5410.821428571428</v>
+      </c>
+      <c r="T18" t="n">
+        <v>4716.407894736843</v>
+      </c>
+      <c r="U18" t="n">
+        <v>3336.453947368421</v>
+      </c>
+      <c r="V18" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -886,7 +1760,54 @@
       <c r="F19" t="n">
         <v>152</v>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.066324049889926</v>
+      </c>
+      <c r="K19" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M19" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O19" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5396</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4706.197368421052</v>
+      </c>
+      <c r="U19" t="n">
+        <v>3381.934210526316</v>
+      </c>
+      <c r="V19" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -909,7 +1830,54 @@
       <c r="F20" t="n">
         <v>152</v>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.066324049889926</v>
+      </c>
+      <c r="K20" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M20" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O20" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5396</v>
+      </c>
+      <c r="T20" t="n">
+        <v>4695.986842105263</v>
+      </c>
+      <c r="U20" t="n">
+        <v>3427.41447368421</v>
+      </c>
+      <c r="V20" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -932,7 +1900,54 @@
       <c r="F21" t="n">
         <v>152</v>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.066324049889926</v>
+      </c>
+      <c r="K21" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M21" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O21" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5396</v>
+      </c>
+      <c r="T21" t="n">
+        <v>4685.776315789473</v>
+      </c>
+      <c r="U21" t="n">
+        <v>3472.894736842105</v>
+      </c>
+      <c r="V21" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -955,7 +1970,54 @@
       <c r="F22" t="n">
         <v>152</v>
       </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H22" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.066324049889926</v>
+      </c>
+      <c r="K22" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M22" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O22" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5396</v>
+      </c>
+      <c r="T22" t="n">
+        <v>4675.565789473684</v>
+      </c>
+      <c r="U22" t="n">
+        <v>3518.375</v>
+      </c>
+      <c r="V22" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -978,7 +2040,54 @@
       <c r="F23" t="n">
         <v>152</v>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.066324049889926</v>
+      </c>
+      <c r="K23" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M23" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O23" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5396</v>
+      </c>
+      <c r="T23" t="n">
+        <v>4665.355263157895</v>
+      </c>
+      <c r="U23" t="n">
+        <v>3563.855263157895</v>
+      </c>
+      <c r="V23" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1001,7 +2110,54 @@
       <c r="F24" t="n">
         <v>152</v>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.066324049889926</v>
+      </c>
+      <c r="K24" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M24" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O24" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5396</v>
+      </c>
+      <c r="T24" t="n">
+        <v>4655.144736842105</v>
+      </c>
+      <c r="U24" t="n">
+        <v>3609.33552631579</v>
+      </c>
+      <c r="V24" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1024,7 +2180,54 @@
       <c r="F25" t="n">
         <v>152</v>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H25" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4.018396166082652</v>
+      </c>
+      <c r="K25" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M25" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O25" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5396</v>
+      </c>
+      <c r="T25" t="n">
+        <v>4647.664473684211</v>
+      </c>
+      <c r="U25" t="n">
+        <v>3654.815789473684</v>
+      </c>
+      <c r="V25" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1047,7 +2250,54 @@
       <c r="F26" t="n">
         <v>152</v>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.018396166082652</v>
+      </c>
+      <c r="K26" t="n">
+        <v>8.918917979908679</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M26" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O26" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5396</v>
+      </c>
+      <c r="T26" t="n">
+        <v>4640.184210526316</v>
+      </c>
+      <c r="U26" t="n">
+        <v>3700.296052631579</v>
+      </c>
+      <c r="V26" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1070,7 +2320,54 @@
       <c r="F27" t="n">
         <v>152</v>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="K27" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M27" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O27" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5396</v>
+      </c>
+      <c r="T27" t="n">
+        <v>4681.855263157895</v>
+      </c>
+      <c r="U27" t="n">
+        <v>3745.776315789474</v>
+      </c>
+      <c r="V27" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1093,7 +2390,54 @@
       <c r="F28" t="n">
         <v>152</v>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="K28" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M28" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O28" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5396</v>
+      </c>
+      <c r="T28" t="n">
+        <v>4723.526315789473</v>
+      </c>
+      <c r="U28" t="n">
+        <v>3791.256578947368</v>
+      </c>
+      <c r="V28" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1116,7 +2460,54 @@
       <c r="F29" t="n">
         <v>152</v>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8.593598522618644</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="K29" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M29" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O29" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5396</v>
+      </c>
+      <c r="T29" t="n">
+        <v>4765.197368421052</v>
+      </c>
+      <c r="U29" t="n">
+        <v>3836.736842105263</v>
+      </c>
+      <c r="V29" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1139,7 +2530,54 @@
       <c r="F30" t="n">
         <v>152</v>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9.590145733303769</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="K30" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.221138760435807</v>
+      </c>
+      <c r="M30" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.86571078750819</v>
+      </c>
+      <c r="O30" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5396</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5396</v>
+      </c>
+      <c r="T30" t="n">
+        <v>4806.868421052632</v>
+      </c>
+      <c r="U30" t="n">
+        <v>3882.217105263158</v>
+      </c>
+      <c r="V30" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1162,7 +2600,54 @@
       <c r="F31" t="n">
         <v>152</v>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>9.590145733303769</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4.928254328511373</v>
+      </c>
+      <c r="K31" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5.314570701191505</v>
+      </c>
+      <c r="M31" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5.597739464943706</v>
+      </c>
+      <c r="O31" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P31" t="n">
+        <v>6.268547887750648</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2536.714285714286</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4681.178571428572</v>
+      </c>
+      <c r="T31" t="n">
+        <v>4716.861842105263</v>
+      </c>
+      <c r="U31" t="n">
+        <v>3861.858552631579</v>
+      </c>
+      <c r="V31" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1185,7 +2670,54 @@
       <c r="F32" t="n">
         <v>152</v>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>9.590145733303769</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4.928254328511373</v>
+      </c>
+      <c r="K32" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5.314570701191505</v>
+      </c>
+      <c r="M32" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5.597739464943706</v>
+      </c>
+      <c r="O32" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P32" t="n">
+        <v>6.268547887750648</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-322.5714285714286</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3966.357142857143</v>
+      </c>
+      <c r="T32" t="n">
+        <v>4626.855263157895</v>
+      </c>
+      <c r="U32" t="n">
+        <v>3841.5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1208,7 +2740,54 @@
       <c r="F33" t="n">
         <v>152</v>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9.590145733303769</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4.928254328511373</v>
+      </c>
+      <c r="K33" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5.314570701191505</v>
+      </c>
+      <c r="M33" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N33" t="n">
+        <v>5.597739464943706</v>
+      </c>
+      <c r="O33" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P33" t="n">
+        <v>6.268547887750648</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-3181.857142857143</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3251.535714285714</v>
+      </c>
+      <c r="T33" t="n">
+        <v>4536.848684210527</v>
+      </c>
+      <c r="U33" t="n">
+        <v>3822.506578947368</v>
+      </c>
+      <c r="V33" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1231,7 +2810,54 @@
       <c r="F34" t="n">
         <v>152</v>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>9.590145733303769</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4.928254328511373</v>
+      </c>
+      <c r="K34" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L34" t="n">
+        <v>5.314570701191505</v>
+      </c>
+      <c r="M34" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5.597739464943706</v>
+      </c>
+      <c r="O34" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P34" t="n">
+        <v>6.268547887750648</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-6041.142857142857</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2536.714285714286</v>
+      </c>
+      <c r="T34" t="n">
+        <v>4446.842105263157</v>
+      </c>
+      <c r="U34" t="n">
+        <v>3803.513157894737</v>
+      </c>
+      <c r="V34" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1254,7 +2880,54 @@
       <c r="F35" t="n">
         <v>152</v>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>9.590145733303769</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.928254328511373</v>
+      </c>
+      <c r="K35" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5.314570701191505</v>
+      </c>
+      <c r="M35" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5.597739464943706</v>
+      </c>
+      <c r="O35" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P35" t="n">
+        <v>6.268547887750648</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-8900.428571428571</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1821.892857142857</v>
+      </c>
+      <c r="T35" t="n">
+        <v>4356.835526315789</v>
+      </c>
+      <c r="U35" t="n">
+        <v>3784.519736842105</v>
+      </c>
+      <c r="V35" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1277,7 +2950,54 @@
       <c r="F36" t="n">
         <v>152</v>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9.590145733303769</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.928254328511373</v>
+      </c>
+      <c r="K36" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L36" t="n">
+        <v>5.314570701191505</v>
+      </c>
+      <c r="M36" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5.597739464943706</v>
+      </c>
+      <c r="O36" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P36" t="n">
+        <v>6.268547887750648</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-11759.71428571429</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1107.071428571429</v>
+      </c>
+      <c r="T36" t="n">
+        <v>4266.828947368421</v>
+      </c>
+      <c r="U36" t="n">
+        <v>3765.526315789474</v>
+      </c>
+      <c r="V36" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1300,7 +3020,54 @@
       <c r="F37" t="n">
         <v>152</v>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>9.64439293693626</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4.928254328511373</v>
+      </c>
+      <c r="K37" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L37" t="n">
+        <v>5.314570701191505</v>
+      </c>
+      <c r="M37" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5.597739464943706</v>
+      </c>
+      <c r="O37" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P37" t="n">
+        <v>6.268547887750648</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-14619</v>
+      </c>
+      <c r="S37" t="n">
+        <v>392.25</v>
+      </c>
+      <c r="T37" t="n">
+        <v>4176.822368421052</v>
+      </c>
+      <c r="U37" t="n">
+        <v>3746.532894736842</v>
+      </c>
+      <c r="V37" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1323,7 +3090,54 @@
       <c r="F38" t="n">
         <v>152</v>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>9.64439293693626</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4.966335035199676</v>
+      </c>
+      <c r="K38" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L38" t="n">
+        <v>5.353499130632651</v>
+      </c>
+      <c r="M38" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N38" t="n">
+        <v>5.636714441208674</v>
+      </c>
+      <c r="O38" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P38" t="n">
+        <v>6.308386004415897</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-14735.42857142857</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-351.6785714285714</v>
+      </c>
+      <c r="T38" t="n">
+        <v>4081.453947368421</v>
+      </c>
+      <c r="U38" t="n">
+        <v>3724.858552631579</v>
+      </c>
+      <c r="V38" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1346,7 +3160,54 @@
       <c r="F39" t="n">
         <v>152</v>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>9.64439293693626</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4.966335035199676</v>
+      </c>
+      <c r="K39" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L39" t="n">
+        <v>5.353499130632651</v>
+      </c>
+      <c r="M39" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5.636714441208674</v>
+      </c>
+      <c r="O39" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P39" t="n">
+        <v>6.308386004415897</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-14851.85714285714</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-1095.607142857143</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3986.08552631579</v>
+      </c>
+      <c r="U39" t="n">
+        <v>3703.184210526316</v>
+      </c>
+      <c r="V39" t="n">
+        <v>15434</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1369,7 +3230,54 @@
       <c r="F40" t="n">
         <v>152</v>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>9.506734385029985</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.966335035199676</v>
+      </c>
+      <c r="K40" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L40" t="n">
+        <v>5.353499130632651</v>
+      </c>
+      <c r="M40" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N40" t="n">
+        <v>5.636714441208674</v>
+      </c>
+      <c r="O40" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P40" t="n">
+        <v>6.308386004415897</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-14968.28571428571</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-1839.535714285714</v>
+      </c>
+      <c r="T40" t="n">
+        <v>3890.717105263158</v>
+      </c>
+      <c r="U40" t="n">
+        <v>3681.509868421052</v>
+      </c>
+      <c r="V40" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1392,7 +3300,54 @@
       <c r="F41" t="n">
         <v>152</v>
       </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>9.506734385029985</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4.966335035199676</v>
+      </c>
+      <c r="K41" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L41" t="n">
+        <v>5.353499130632651</v>
+      </c>
+      <c r="M41" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N41" t="n">
+        <v>5.636714441208674</v>
+      </c>
+      <c r="O41" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P41" t="n">
+        <v>6.308386004415897</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-14801.14285714286</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-2512.571428571428</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3808.407894736842</v>
+      </c>
+      <c r="U41" t="n">
+        <v>3666.365131578948</v>
+      </c>
+      <c r="V41" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1415,7 +3370,54 @@
       <c r="F42" t="n">
         <v>152</v>
       </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>9.506734385029985</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.966335035199676</v>
+      </c>
+      <c r="K42" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L42" t="n">
+        <v>5.353499130632651</v>
+      </c>
+      <c r="M42" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N42" t="n">
+        <v>5.636714441208674</v>
+      </c>
+      <c r="O42" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P42" t="n">
+        <v>6.308386004415897</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-14634</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-3185.607142857143</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3726.098684210526</v>
+      </c>
+      <c r="U42" t="n">
+        <v>3651.220394736842</v>
+      </c>
+      <c r="V42" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1438,7 +3440,54 @@
       <c r="F43" t="n">
         <v>152</v>
       </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9.506734385029985</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4.966335035199676</v>
+      </c>
+      <c r="K43" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5.353499130632651</v>
+      </c>
+      <c r="M43" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5.636714441208674</v>
+      </c>
+      <c r="O43" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P43" t="n">
+        <v>6.308386004415897</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-14466.85714285714</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-3858.642857142857</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3643.78947368421</v>
+      </c>
+      <c r="U43" t="n">
+        <v>3636.075657894737</v>
+      </c>
+      <c r="V43" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1461,7 +3510,54 @@
       <c r="F44" t="n">
         <v>152</v>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>9.506734385029985</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4.966335035199676</v>
+      </c>
+      <c r="K44" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L44" t="n">
+        <v>5.353499130632651</v>
+      </c>
+      <c r="M44" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N44" t="n">
+        <v>5.636714441208674</v>
+      </c>
+      <c r="O44" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P44" t="n">
+        <v>6.308386004415897</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-14299.71428571429</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-4531.678571428572</v>
+      </c>
+      <c r="T44" t="n">
+        <v>3561.480263157895</v>
+      </c>
+      <c r="U44" t="n">
+        <v>3620.930921052632</v>
+      </c>
+      <c r="V44" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1484,7 +3580,54 @@
       <c r="F45" t="n">
         <v>152</v>
       </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>9.506734385029985</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.966335035199676</v>
+      </c>
+      <c r="K45" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L45" t="n">
+        <v>5.353499130632651</v>
+      </c>
+      <c r="M45" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N45" t="n">
+        <v>5.636714441208674</v>
+      </c>
+      <c r="O45" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P45" t="n">
+        <v>6.308386004415897</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R45" t="n">
+        <v>-14016.14285714286</v>
+      </c>
+      <c r="S45" t="n">
+        <v>-5204.714285714285</v>
+      </c>
+      <c r="T45" t="n">
+        <v>3479.171052631579</v>
+      </c>
+      <c r="U45" t="n">
+        <v>3605.786184210526</v>
+      </c>
+      <c r="V45" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1507,7 +3650,54 @@
       <c r="F46" t="n">
         <v>152</v>
       </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>9.506734385029985</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4.966335035199676</v>
+      </c>
+      <c r="K46" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L46" t="n">
+        <v>5.353499130632651</v>
+      </c>
+      <c r="M46" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N46" t="n">
+        <v>5.636714441208674</v>
+      </c>
+      <c r="O46" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P46" t="n">
+        <v>6.308386004415897</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-13732.57142857143</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-5877.75</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3396.861842105263</v>
+      </c>
+      <c r="U46" t="n">
+        <v>3590.641447368421</v>
+      </c>
+      <c r="V46" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1530,7 +3720,54 @@
       <c r="F47" t="n">
         <v>152</v>
       </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>9.506734385029985</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4.966335035199676</v>
+      </c>
+      <c r="K47" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L47" t="n">
+        <v>5.353499130632651</v>
+      </c>
+      <c r="M47" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5.636714441208674</v>
+      </c>
+      <c r="O47" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P47" t="n">
+        <v>6.308386004415897</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-13449</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-6550.785714285715</v>
+      </c>
+      <c r="T47" t="n">
+        <v>3314.552631578948</v>
+      </c>
+      <c r="U47" t="n">
+        <v>3575.496710526316</v>
+      </c>
+      <c r="V47" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1553,7 +3790,54 @@
       <c r="F48" t="n">
         <v>152</v>
       </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>9.506734385029985</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4.966335035199676</v>
+      </c>
+      <c r="K48" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L48" t="n">
+        <v>5.353499130632651</v>
+      </c>
+      <c r="M48" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N48" t="n">
+        <v>5.636714441208674</v>
+      </c>
+      <c r="O48" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P48" t="n">
+        <v>6.308386004415897</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-13449</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-7223.821428571428</v>
+      </c>
+      <c r="T48" t="n">
+        <v>3232.243421052632</v>
+      </c>
+      <c r="U48" t="n">
+        <v>3560.35197368421</v>
+      </c>
+      <c r="V48" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1576,7 +3860,54 @@
       <c r="F49" t="n">
         <v>152</v>
       </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>9.506734385029985</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4.966335035199676</v>
+      </c>
+      <c r="K49" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L49" t="n">
+        <v>5.353499130632651</v>
+      </c>
+      <c r="M49" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5.636714441208674</v>
+      </c>
+      <c r="O49" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P49" t="n">
+        <v>6.308386004415897</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-13449</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-7896.857142857143</v>
+      </c>
+      <c r="T49" t="n">
+        <v>3149.934210526316</v>
+      </c>
+      <c r="U49" t="n">
+        <v>3545.207236842105</v>
+      </c>
+      <c r="V49" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1599,7 +3930,54 @@
       <c r="F50" t="n">
         <v>152</v>
       </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>9.506734385029985</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4.966335035199676</v>
+      </c>
+      <c r="K50" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L50" t="n">
+        <v>5.353499130632651</v>
+      </c>
+      <c r="M50" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N50" t="n">
+        <v>5.636714441208674</v>
+      </c>
+      <c r="O50" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P50" t="n">
+        <v>6.308386004415897</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-13449</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-8569.892857142857</v>
+      </c>
+      <c r="T50" t="n">
+        <v>3067.625</v>
+      </c>
+      <c r="U50" t="n">
+        <v>3530.0625</v>
+      </c>
+      <c r="V50" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1622,7 +4000,54 @@
       <c r="F51" t="n">
         <v>152</v>
       </c>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4.966335035199676</v>
+      </c>
+      <c r="K51" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L51" t="n">
+        <v>5.353499130632651</v>
+      </c>
+      <c r="M51" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N51" t="n">
+        <v>5.636714441208674</v>
+      </c>
+      <c r="O51" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P51" t="n">
+        <v>6.308386004415897</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-13449</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-9242.928571428571</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2985.315789473684</v>
+      </c>
+      <c r="U51" t="n">
+        <v>3514.917763157895</v>
+      </c>
+      <c r="V51" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1645,7 +4070,54 @@
       <c r="F52" t="n">
         <v>152</v>
       </c>
-      <c r="G52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K52" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M52" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N52" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O52" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P52" t="n">
+        <v>6.332765333063249</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-13522.57142857143</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-9934.357142857143</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2899.618421052632</v>
+      </c>
+      <c r="U52" t="n">
+        <v>3498.078947368421</v>
+      </c>
+      <c r="V52" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1668,7 +4140,54 @@
       <c r="F53" t="n">
         <v>152</v>
       </c>
-      <c r="G53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J53" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K53" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L53" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M53" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N53" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O53" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P53" t="n">
+        <v>6.332765333063249</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-13596.14285714286</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-10625.78571428571</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2766.78947368421</v>
+      </c>
+      <c r="U53" t="n">
+        <v>3481.240131578948</v>
+      </c>
+      <c r="V53" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1691,7 +4210,54 @@
       <c r="F54" t="n">
         <v>152</v>
       </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J54" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K54" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L54" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M54" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N54" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O54" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P54" t="n">
+        <v>6.332765333063249</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-13669.71428571429</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-11317.21428571429</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2633.96052631579</v>
+      </c>
+      <c r="U54" t="n">
+        <v>3464.401315789474</v>
+      </c>
+      <c r="V54" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1714,7 +4280,54 @@
       <c r="F55" t="n">
         <v>152</v>
       </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K55" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L55" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M55" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N55" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O55" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P55" t="n">
+        <v>6.332765333063249</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-13743.28571428571</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-12008.64285714286</v>
+      </c>
+      <c r="T55" t="n">
+        <v>2501.131578947368</v>
+      </c>
+      <c r="U55" t="n">
+        <v>3447.5625</v>
+      </c>
+      <c r="V55" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1737,7 +4350,54 @@
       <c r="F56" t="n">
         <v>152</v>
       </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J56" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K56" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L56" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M56" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N56" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O56" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P56" t="n">
+        <v>6.332765333063249</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-13816.85714285714</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-12700.07142857143</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2368.302631578948</v>
+      </c>
+      <c r="U56" t="n">
+        <v>3430.723684210526</v>
+      </c>
+      <c r="V56" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1760,7 +4420,54 @@
       <c r="F57" t="n">
         <v>152</v>
       </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K57" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M57" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N57" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O57" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P57" t="n">
+        <v>6.332765333063249</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-13890.42857142857</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-13391.5</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2235.473684210526</v>
+      </c>
+      <c r="U57" t="n">
+        <v>3413.884868421052</v>
+      </c>
+      <c r="V57" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1783,7 +4490,54 @@
       <c r="F58" t="n">
         <v>152</v>
       </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K58" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L58" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M58" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N58" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O58" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P58" t="n">
+        <v>6.332765333063249</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-14082.92857142857</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2102.644736842105</v>
+      </c>
+      <c r="U58" t="n">
+        <v>3397.046052631579</v>
+      </c>
+      <c r="V58" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1806,7 +4560,54 @@
       <c r="F59" t="n">
         <v>152</v>
       </c>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K59" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L59" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M59" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N59" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O59" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P59" t="n">
+        <v>6.332765333063249</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-14059.53571428571</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1969.815789473684</v>
+      </c>
+      <c r="U59" t="n">
+        <v>3380.207236842105</v>
+      </c>
+      <c r="V59" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1829,7 +4630,54 @@
       <c r="F60" t="n">
         <v>152</v>
       </c>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J60" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K60" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L60" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M60" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O60" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P60" t="n">
+        <v>6.332765333063249</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-14036.14285714286</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1836.986842105263</v>
+      </c>
+      <c r="U60" t="n">
+        <v>3363.368421052632</v>
+      </c>
+      <c r="V60" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1852,7 +4700,54 @@
       <c r="F61" t="n">
         <v>152</v>
       </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J61" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K61" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L61" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M61" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O61" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P61" t="n">
+        <v>6.332765333063249</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R61" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-14012.75</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1704.157894736842</v>
+      </c>
+      <c r="U61" t="n">
+        <v>3346.529605263158</v>
+      </c>
+      <c r="V61" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1875,7 +4770,54 @@
       <c r="F62" t="n">
         <v>152</v>
       </c>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J62" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K62" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L62" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M62" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N62" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O62" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P62" t="n">
+        <v>6.332765333063249</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-13989.35714285714</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1571.328947368421</v>
+      </c>
+      <c r="U62" t="n">
+        <v>3329.690789473684</v>
+      </c>
+      <c r="V62" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1898,7 +4840,54 @@
       <c r="F63" t="n">
         <v>152</v>
       </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J63" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K63" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L63" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M63" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N63" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O63" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P63" t="n">
+        <v>6.332765333063249</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-13965.96428571429</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1438.5</v>
+      </c>
+      <c r="U63" t="n">
+        <v>3312.85197368421</v>
+      </c>
+      <c r="V63" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1921,7 +4910,54 @@
       <c r="F64" t="n">
         <v>152</v>
       </c>
-      <c r="G64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K64" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L64" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M64" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N64" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O64" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P64" t="n">
+        <v>6.332765333063249</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-13942.57142857143</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1305.671052631579</v>
+      </c>
+      <c r="U64" t="n">
+        <v>3296.013157894737</v>
+      </c>
+      <c r="V64" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1944,7 +4980,54 @@
       <c r="F65" t="n">
         <v>152</v>
       </c>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K65" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L65" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M65" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N65" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O65" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P65" t="n">
+        <v>6.332765333063249</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-13919.17857142857</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1172.842105263158</v>
+      </c>
+      <c r="U65" t="n">
+        <v>3206.868421052632</v>
+      </c>
+      <c r="V65" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1967,7 +5050,54 @@
       <c r="F66" t="n">
         <v>152</v>
       </c>
-      <c r="G66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K66" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L66" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M66" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N66" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O66" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P66" t="n">
+        <v>6.332765333063249</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-13866.67857142857</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1040.013157894737</v>
+      </c>
+      <c r="U66" t="n">
+        <v>3117.723684210526</v>
+      </c>
+      <c r="V66" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1990,7 +5120,54 @@
       <c r="F67" t="n">
         <v>152</v>
       </c>
-      <c r="G67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K67" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L67" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M67" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N67" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O67" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P67" t="n">
+        <v>6.332765333063249</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-13814.17857142857</v>
+      </c>
+      <c r="T67" t="n">
+        <v>907.1842105263158</v>
+      </c>
+      <c r="U67" t="n">
+        <v>3029.944078947368</v>
+      </c>
+      <c r="V67" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2013,7 +5190,54 @@
       <c r="F68" t="n">
         <v>152</v>
       </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J68" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K68" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L68" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M68" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N68" t="n">
+        <v>5.641393687966485</v>
+      </c>
+      <c r="O68" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P68" t="n">
+        <v>6.332765333063249</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="R68" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S68" t="n">
+        <v>-13761.67857142857</v>
+      </c>
+      <c r="T68" t="n">
+        <v>774.3552631578947</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2942.16447368421</v>
+      </c>
+      <c r="V68" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2036,7 +5260,54 @@
       <c r="F69" t="n">
         <v>152</v>
       </c>
-      <c r="G69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J69" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K69" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L69" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M69" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N69" t="n">
+        <v>5.641393687966485</v>
+      </c>
+      <c r="O69" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3.58351893845611</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>6.704414354964107</v>
+      </c>
+      <c r="R69" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S69" t="n">
+        <v>-13780.07142857143</v>
+      </c>
+      <c r="T69" t="n">
+        <v>641.5263157894736</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2854.384868421052</v>
+      </c>
+      <c r="V69" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2059,7 +5330,54 @@
       <c r="F70" t="n">
         <v>152</v>
       </c>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J70" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K70" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L70" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M70" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N70" t="n">
+        <v>5.641393687966485</v>
+      </c>
+      <c r="O70" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3.58351893845611</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>6.704414354964107</v>
+      </c>
+      <c r="R70" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S70" t="n">
+        <v>-13798.46428571429</v>
+      </c>
+      <c r="T70" t="n">
+        <v>508.6973684210527</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2766.605263157895</v>
+      </c>
+      <c r="V70" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2082,7 +5400,54 @@
       <c r="F71" t="n">
         <v>152</v>
       </c>
-      <c r="G71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J71" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K71" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L71" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M71" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N71" t="n">
+        <v>5.641393687966485</v>
+      </c>
+      <c r="O71" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3.58351893845611</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>6.704414354964107</v>
+      </c>
+      <c r="R71" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S71" t="n">
+        <v>-13816.85714285714</v>
+      </c>
+      <c r="T71" t="n">
+        <v>375.8684210526316</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2678.825657894737</v>
+      </c>
+      <c r="V71" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2105,7 +5470,54 @@
       <c r="F72" t="n">
         <v>152</v>
       </c>
-      <c r="G72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J72" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K72" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L72" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M72" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N72" t="n">
+        <v>5.641393687966485</v>
+      </c>
+      <c r="O72" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3.58351893845611</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>6.704414354964107</v>
+      </c>
+      <c r="R72" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S72" t="n">
+        <v>-13835.25</v>
+      </c>
+      <c r="T72" t="n">
+        <v>243.0394736842105</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2591.046052631579</v>
+      </c>
+      <c r="V72" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2128,7 +5540,54 @@
       <c r="F73" t="n">
         <v>152</v>
       </c>
-      <c r="G73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J73" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K73" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L73" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M73" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N73" t="n">
+        <v>5.641393687966485</v>
+      </c>
+      <c r="O73" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3.58351893845611</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>6.704414354964107</v>
+      </c>
+      <c r="R73" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S73" t="n">
+        <v>-13853.64285714286</v>
+      </c>
+      <c r="T73" t="n">
+        <v>110.2105263157895</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2503.266447368421</v>
+      </c>
+      <c r="V73" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2151,7 +5610,54 @@
       <c r="F74" t="n">
         <v>152</v>
       </c>
-      <c r="G74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J74" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K74" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L74" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M74" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N74" t="n">
+        <v>5.641393687966485</v>
+      </c>
+      <c r="O74" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3.58351893845611</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>6.704414354964107</v>
+      </c>
+      <c r="R74" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S74" t="n">
+        <v>-13872.03571428571</v>
+      </c>
+      <c r="T74" t="n">
+        <v>-22.61842105263158</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2415.486842105263</v>
+      </c>
+      <c r="V74" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2174,7 +5680,54 @@
       <c r="F75" t="n">
         <v>152</v>
       </c>
-      <c r="G75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J75" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K75" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L75" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M75" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.641393687966485</v>
+      </c>
+      <c r="O75" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3.58351893845611</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>6.704414354964107</v>
+      </c>
+      <c r="R75" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S75" t="n">
+        <v>-13890.42857142857</v>
+      </c>
+      <c r="T75" t="n">
+        <v>-155.4473684210526</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2327.707236842105</v>
+      </c>
+      <c r="V75" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2197,7 +5750,54 @@
       <c r="F76" t="n">
         <v>152</v>
       </c>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J76" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K76" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L76" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M76" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N76" t="n">
+        <v>5.641393687966485</v>
+      </c>
+      <c r="O76" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2.677771841795949</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>6.246106765481563</v>
+      </c>
+      <c r="R76" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S76" t="n">
+        <v>-13908.82142857143</v>
+      </c>
+      <c r="T76" t="n">
+        <v>-288.2763157894737</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2239.927631578948</v>
+      </c>
+      <c r="V76" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2220,7 +5820,54 @@
       <c r="F77" t="n">
         <v>152</v>
       </c>
-      <c r="G77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J77" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K77" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L77" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M77" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N77" t="n">
+        <v>5.641393687966485</v>
+      </c>
+      <c r="O77" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2.677771841795949</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>6.246106765481563</v>
+      </c>
+      <c r="R77" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S77" t="n">
+        <v>-13927.21428571429</v>
+      </c>
+      <c r="T77" t="n">
+        <v>-421.1052631578947</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2152.14802631579</v>
+      </c>
+      <c r="V77" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2243,7 +5890,54 @@
       <c r="F78" t="n">
         <v>152</v>
       </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J78" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K78" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L78" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M78" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N78" t="n">
+        <v>5.641393687966485</v>
+      </c>
+      <c r="O78" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2.677771841795949</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>6.246106765481563</v>
+      </c>
+      <c r="R78" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S78" t="n">
+        <v>-13945.60714285714</v>
+      </c>
+      <c r="T78" t="n">
+        <v>-553.9342105263158</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2064.368421052632</v>
+      </c>
+      <c r="V78" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2266,7 +5960,54 @@
       <c r="F79" t="n">
         <v>152</v>
       </c>
-      <c r="G79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J79" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K79" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L79" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M79" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N79" t="n">
+        <v>5.641393687966485</v>
+      </c>
+      <c r="O79" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2.677771841795949</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>6.246106765481563</v>
+      </c>
+      <c r="R79" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S79" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="T79" t="n">
+        <v>-686.7631578947369</v>
+      </c>
+      <c r="U79" t="n">
+        <v>1976.588815789474</v>
+      </c>
+      <c r="V79" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2289,7 +6030,54 @@
       <c r="F80" t="n">
         <v>152</v>
       </c>
-      <c r="G80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J80" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K80" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L80" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M80" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N80" t="n">
+        <v>5.641393687966485</v>
+      </c>
+      <c r="O80" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2.677771841795949</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>6.246106765481563</v>
+      </c>
+      <c r="R80" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S80" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="T80" t="n">
+        <v>-819.5921052631579</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1888.809210526316</v>
+      </c>
+      <c r="V80" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2312,7 +6100,54 @@
       <c r="F81" t="n">
         <v>152</v>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J81" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K81" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L81" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M81" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N81" t="n">
+        <v>5.641393687966485</v>
+      </c>
+      <c r="O81" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2.677771841795949</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>6.246106765481563</v>
+      </c>
+      <c r="R81" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S81" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="T81" t="n">
+        <v>-952.421052631579</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1801.029605263158</v>
+      </c>
+      <c r="V81" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2335,7 +6170,54 @@
       <c r="F82" t="n">
         <v>152</v>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J82" t="n">
+        <v>4.970909190096638</v>
+      </c>
+      <c r="K82" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L82" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M82" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N82" t="n">
+        <v>5.641393687966485</v>
+      </c>
+      <c r="O82" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2.677771841795949</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>6.246106765481563</v>
+      </c>
+      <c r="R82" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S82" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="T82" t="n">
+        <v>-1082.519736842105</v>
+      </c>
+      <c r="U82" t="n">
+        <v>1713.25</v>
+      </c>
+      <c r="V82" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2358,7 +6240,54 @@
       <c r="F83" t="n">
         <v>152</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J83" t="n">
+        <v>4.970909190096638</v>
+      </c>
+      <c r="K83" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L83" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M83" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N83" t="n">
+        <v>5.641393687966485</v>
+      </c>
+      <c r="O83" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2.677771841795949</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>6.246106765481563</v>
+      </c>
+      <c r="R83" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S83" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="T83" t="n">
+        <v>-1212.618421052632</v>
+      </c>
+      <c r="U83" t="n">
+        <v>1628.151315789474</v>
+      </c>
+      <c r="V83" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2381,7 +6310,54 @@
       <c r="F84" t="n">
         <v>152</v>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>9.544309478379278</v>
+      </c>
+      <c r="J84" t="n">
+        <v>4.970909190096638</v>
+      </c>
+      <c r="K84" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L84" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M84" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N84" t="n">
+        <v>5.641393687966485</v>
+      </c>
+      <c r="O84" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P84" t="n">
+        <v>2.677771841795949</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>6.246106765481563</v>
+      </c>
+      <c r="R84" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S84" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="T84" t="n">
+        <v>-1342.717105263158</v>
+      </c>
+      <c r="U84" t="n">
+        <v>1543.052631578947</v>
+      </c>
+      <c r="V84" t="n">
+        <v>13964</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2404,7 +6380,54 @@
       <c r="F85" t="n">
         <v>152</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H85" t="n">
+        <v>8.991811158212718</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>4.970909190096638</v>
+      </c>
+      <c r="K85" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L85" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M85" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N85" t="n">
+        <v>5.641393687966485</v>
+      </c>
+      <c r="O85" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P85" t="n">
+        <v>2.677771841795949</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>6.246106765481563</v>
+      </c>
+      <c r="R85" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="S85" t="n">
+        <v>-13964</v>
+      </c>
+      <c r="T85" t="n">
+        <v>-1472.815789473684</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1457.953947368421</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2427,7 +6450,54 @@
       <c r="F86" t="n">
         <v>152</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H86" t="n">
+        <v>8.991811158212718</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>4.970909190096638</v>
+      </c>
+      <c r="K86" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L86" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M86" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N86" t="n">
+        <v>5.641393687966485</v>
+      </c>
+      <c r="O86" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P86" t="n">
+        <v>2.677771841795949</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>6.246106765481563</v>
+      </c>
+      <c r="R86" t="n">
+        <v>-10821.14285714286</v>
+      </c>
+      <c r="S86" t="n">
+        <v>-13178.28571428571</v>
+      </c>
+      <c r="T86" t="n">
+        <v>-1458.177631578947</v>
+      </c>
+      <c r="U86" t="n">
+        <v>1445.223684210526</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2450,7 +6520,54 @@
       <c r="F87" t="n">
         <v>152</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H87" t="n">
+        <v>8.991811158212718</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>4.970909190096638</v>
+      </c>
+      <c r="K87" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L87" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M87" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N87" t="n">
+        <v>5.641393687966485</v>
+      </c>
+      <c r="O87" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2.677771841795949</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>6.246106765481563</v>
+      </c>
+      <c r="R87" t="n">
+        <v>-7678.285714285715</v>
+      </c>
+      <c r="S87" t="n">
+        <v>-12392.57142857143</v>
+      </c>
+      <c r="T87" t="n">
+        <v>-1443.539473684211</v>
+      </c>
+      <c r="U87" t="n">
+        <v>1432.493421052632</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2473,7 +6590,54 @@
       <c r="F88" t="n">
         <v>152</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H88" t="n">
+        <v>8.991811158212718</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>4.970909190096638</v>
+      </c>
+      <c r="K88" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L88" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M88" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N88" t="n">
+        <v>5.641393687966485</v>
+      </c>
+      <c r="O88" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2.677771841795949</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>6.246106765481563</v>
+      </c>
+      <c r="R88" t="n">
+        <v>-4535.428571428572</v>
+      </c>
+      <c r="S88" t="n">
+        <v>-11606.85714285714</v>
+      </c>
+      <c r="T88" t="n">
+        <v>-1428.901315789474</v>
+      </c>
+      <c r="U88" t="n">
+        <v>1419.763157894737</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2496,7 +6660,54 @@
       <c r="F89" t="n">
         <v>152</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H89" t="n">
+        <v>8.938794081433805</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>4.970909190096638</v>
+      </c>
+      <c r="K89" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L89" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M89" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N89" t="n">
+        <v>5.641393687966485</v>
+      </c>
+      <c r="O89" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2.677771841795949</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>6.246106765481563</v>
+      </c>
+      <c r="R89" t="n">
+        <v>-1392.571428571429</v>
+      </c>
+      <c r="S89" t="n">
+        <v>-10821.14285714286</v>
+      </c>
+      <c r="T89" t="n">
+        <v>-1414.263157894737</v>
+      </c>
+      <c r="U89" t="n">
+        <v>1407.032894736842</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2519,7 +6730,54 @@
       <c r="F90" t="n">
         <v>152</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H90" t="n">
+        <v>8.938794081433805</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K90" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L90" t="n">
+        <v>5.3961446278683</v>
+      </c>
+      <c r="M90" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O90" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1691</v>
+      </c>
+      <c r="S90" t="n">
+        <v>-10050.25</v>
+      </c>
+      <c r="T90" t="n">
+        <v>-1402.355263157895</v>
+      </c>
+      <c r="U90" t="n">
+        <v>1392.9375</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2542,7 +6800,54 @@
       <c r="F91" t="n">
         <v>152</v>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H91" t="n">
+        <v>8.938794081433805</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K91" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L91" t="n">
+        <v>5.3961446278683</v>
+      </c>
+      <c r="M91" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N91" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O91" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P91" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4774.571428571428</v>
+      </c>
+      <c r="S91" t="n">
+        <v>-9279.357142857143</v>
+      </c>
+      <c r="T91" t="n">
+        <v>-1390.447368421053</v>
+      </c>
+      <c r="U91" t="n">
+        <v>1378.842105263158</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2565,7 +6870,54 @@
       <c r="F92" t="n">
         <v>152</v>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H92" t="n">
+        <v>8.938794081433805</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K92" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L92" t="n">
+        <v>5.3961446278683</v>
+      </c>
+      <c r="M92" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N92" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O92" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P92" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R92" t="n">
+        <v>7858.142857142857</v>
+      </c>
+      <c r="S92" t="n">
+        <v>-8508.464285714286</v>
+      </c>
+      <c r="T92" t="n">
+        <v>-1378.539473684211</v>
+      </c>
+      <c r="U92" t="n">
+        <v>1364.746710526316</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2588,7 +6940,54 @@
       <c r="F93" t="n">
         <v>152</v>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H93" t="n">
+        <v>8.938794081433805</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K93" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L93" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M93" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O93" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P93" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R93" t="n">
+        <v>7798.857142857143</v>
+      </c>
+      <c r="S93" t="n">
+        <v>-7737.571428571428</v>
+      </c>
+      <c r="T93" t="n">
+        <v>-1366.631578947368</v>
+      </c>
+      <c r="U93" t="n">
+        <v>1350.651315789474</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2611,7 +7010,54 @@
       <c r="F94" t="n">
         <v>152</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H94" t="n">
+        <v>8.938794081433805</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K94" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L94" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M94" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N94" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O94" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R94" t="n">
+        <v>7739.571428571428</v>
+      </c>
+      <c r="S94" t="n">
+        <v>-6966.678571428572</v>
+      </c>
+      <c r="T94" t="n">
+        <v>-1354.723684210526</v>
+      </c>
+      <c r="U94" t="n">
+        <v>1336.555921052632</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2634,7 +7080,54 @@
       <c r="F95" t="n">
         <v>152</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H95" t="n">
+        <v>8.938794081433805</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K95" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L95" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M95" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N95" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O95" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P95" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R95" t="n">
+        <v>7680.285714285715</v>
+      </c>
+      <c r="S95" t="n">
+        <v>-6195.785714285715</v>
+      </c>
+      <c r="T95" t="n">
+        <v>-1342.815789473684</v>
+      </c>
+      <c r="U95" t="n">
+        <v>1322.460526315789</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2657,7 +7150,54 @@
       <c r="F96" t="n">
         <v>152</v>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H96" t="n">
+        <v>8.938794081433805</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K96" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L96" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M96" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N96" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O96" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R96" t="n">
+        <v>7621</v>
+      </c>
+      <c r="S96" t="n">
+        <v>-5424.892857142857</v>
+      </c>
+      <c r="T96" t="n">
+        <v>-1330.907894736842</v>
+      </c>
+      <c r="U96" t="n">
+        <v>1308.365131578947</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2680,7 +7220,54 @@
       <c r="F97" t="n">
         <v>152</v>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H97" t="n">
+        <v>8.938794081433805</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K97" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L97" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M97" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N97" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O97" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P97" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R97" t="n">
+        <v>7621</v>
+      </c>
+      <c r="S97" t="n">
+        <v>-4654</v>
+      </c>
+      <c r="T97" t="n">
+        <v>-1319</v>
+      </c>
+      <c r="U97" t="n">
+        <v>1294.269736842105</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2703,7 +7290,54 @@
       <c r="F98" t="n">
         <v>152</v>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H98" t="n">
+        <v>8.938794081433805</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K98" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L98" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M98" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N98" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O98" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P98" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R98" t="n">
+        <v>7621</v>
+      </c>
+      <c r="S98" t="n">
+        <v>-3883.107142857143</v>
+      </c>
+      <c r="T98" t="n">
+        <v>-1307.092105263158</v>
+      </c>
+      <c r="U98" t="n">
+        <v>1280.174342105263</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2726,7 +7360,54 @@
       <c r="F99" t="n">
         <v>152</v>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H99" t="n">
+        <v>8.938794081433805</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K99" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L99" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M99" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O99" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P99" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R99" t="n">
+        <v>7621</v>
+      </c>
+      <c r="S99" t="n">
+        <v>-3112.214285714286</v>
+      </c>
+      <c r="T99" t="n">
+        <v>-1295.184210526316</v>
+      </c>
+      <c r="U99" t="n">
+        <v>1266.078947368421</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2749,7 +7430,54 @@
       <c r="F100" t="n">
         <v>152</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H100" t="n">
+        <v>8.938794081433805</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K100" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L100" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M100" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N100" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O100" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P100" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R100" t="n">
+        <v>7621</v>
+      </c>
+      <c r="S100" t="n">
+        <v>-2341.321428571428</v>
+      </c>
+      <c r="T100" t="n">
+        <v>-1283.276315789474</v>
+      </c>
+      <c r="U100" t="n">
+        <v>1251.983552631579</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2772,7 +7500,54 @@
       <c r="F101" t="n">
         <v>152</v>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H101" t="n">
+        <v>8.938794081433805</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K101" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L101" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M101" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N101" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O101" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P101" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R101" t="n">
+        <v>7621</v>
+      </c>
+      <c r="S101" t="n">
+        <v>-1570.428571428571</v>
+      </c>
+      <c r="T101" t="n">
+        <v>-1271.368421052632</v>
+      </c>
+      <c r="U101" t="n">
+        <v>1237.888157894737</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2795,7 +7570,54 @@
       <c r="F102" t="n">
         <v>152</v>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H102" t="n">
+        <v>8.938794081433805</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K102" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L102" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M102" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N102" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O102" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P102" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R102" t="n">
+        <v>7621</v>
+      </c>
+      <c r="S102" t="n">
+        <v>-799.5357142857143</v>
+      </c>
+      <c r="T102" t="n">
+        <v>-1259.460526315789</v>
+      </c>
+      <c r="U102" t="n">
+        <v>1223.792763157895</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2818,7 +7640,54 @@
       <c r="F103" t="n">
         <v>152</v>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H103" t="n">
+        <v>8.882808054924441</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>4.989671466552161</v>
+      </c>
+      <c r="K103" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L103" t="n">
+        <v>5.377338989497132</v>
+      </c>
+      <c r="M103" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N103" t="n">
+        <v>5.660581922615317</v>
+      </c>
+      <c r="O103" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P103" t="n">
+        <v>2.478305965756648</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R103" t="n">
+        <v>7621</v>
+      </c>
+      <c r="S103" t="n">
+        <v>-28.64285714285714</v>
+      </c>
+      <c r="T103" t="n">
+        <v>-1247.552631578947</v>
+      </c>
+      <c r="U103" t="n">
+        <v>1209.697368421053</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2841,7 +7710,54 @@
       <c r="F104" t="n">
         <v>152</v>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H104" t="n">
+        <v>8.882808054924441</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>5.008088193338391</v>
+      </c>
+      <c r="K104" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L104" t="n">
+        <v>5.3961446278683</v>
+      </c>
+      <c r="M104" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N104" t="n">
+        <v>5.679408890118337</v>
+      </c>
+      <c r="O104" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3.128605554933964</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R104" t="n">
+        <v>7561.714285714285</v>
+      </c>
+      <c r="S104" t="n">
+        <v>727.4285714285714</v>
+      </c>
+      <c r="T104" t="n">
+        <v>-1238.375</v>
+      </c>
+      <c r="U104" t="n">
+        <v>1194.236842105263</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2864,7 +7780,54 @@
       <c r="F105" t="n">
         <v>152</v>
       </c>
-      <c r="G105" t="inlineStr"/>
+      <c r="G105" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H105" t="n">
+        <v>8.882808054924441</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>5.008088193338391</v>
+      </c>
+      <c r="K105" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L105" t="n">
+        <v>5.3961446278683</v>
+      </c>
+      <c r="M105" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N105" t="n">
+        <v>5.679408890118337</v>
+      </c>
+      <c r="O105" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P105" t="n">
+        <v>3.128605554933964</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R105" t="n">
+        <v>7502.428571428572</v>
+      </c>
+      <c r="S105" t="n">
+        <v>1483.5</v>
+      </c>
+      <c r="T105" t="n">
+        <v>-1229.197368421053</v>
+      </c>
+      <c r="U105" t="n">
+        <v>1178.776315789474</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2887,7 +7850,54 @@
       <c r="F106" t="n">
         <v>152</v>
       </c>
-      <c r="G106" t="inlineStr"/>
+      <c r="G106" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H106" t="n">
+        <v>8.882808054924441</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>5.008088193338391</v>
+      </c>
+      <c r="K106" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L106" t="n">
+        <v>5.3961446278683</v>
+      </c>
+      <c r="M106" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N106" t="n">
+        <v>5.679408890118337</v>
+      </c>
+      <c r="O106" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="P106" t="n">
+        <v>3.128605554933964</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R106" t="n">
+        <v>7443.142857142857</v>
+      </c>
+      <c r="S106" t="n">
+        <v>2239.571428571428</v>
+      </c>
+      <c r="T106" t="n">
+        <v>-1220.019736842105</v>
+      </c>
+      <c r="U106" t="n">
+        <v>1163.315789473684</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2910,7 +7920,54 @@
       <c r="F107" t="n">
         <v>152</v>
       </c>
-      <c r="G107" t="inlineStr"/>
+      <c r="G107" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H107" t="n">
+        <v>8.882808054924441</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>5.008088193338391</v>
+      </c>
+      <c r="K107" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L107" t="n">
+        <v>5.3961446278683</v>
+      </c>
+      <c r="M107" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N107" t="n">
+        <v>3.381710493988659</v>
+      </c>
+      <c r="O107" t="n">
+        <v>6.704414354964107</v>
+      </c>
+      <c r="P107" t="n">
+        <v>3.128605554933964</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R107" t="n">
+        <v>7383.857142857143</v>
+      </c>
+      <c r="S107" t="n">
+        <v>2995.642857142857</v>
+      </c>
+      <c r="T107" t="n">
+        <v>-1210.842105263158</v>
+      </c>
+      <c r="U107" t="n">
+        <v>1147.855263157895</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2933,7 +7990,54 @@
       <c r="F108" t="n">
         <v>152</v>
       </c>
-      <c r="G108" t="inlineStr"/>
+      <c r="G108" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H108" t="n">
+        <v>8.882808054924441</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>5.008088193338391</v>
+      </c>
+      <c r="K108" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L108" t="n">
+        <v>5.3961446278683</v>
+      </c>
+      <c r="M108" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N108" t="n">
+        <v>3.381710493988659</v>
+      </c>
+      <c r="O108" t="n">
+        <v>6.704414354964107</v>
+      </c>
+      <c r="P108" t="n">
+        <v>3.128605554933964</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R108" t="n">
+        <v>7324.571428571428</v>
+      </c>
+      <c r="S108" t="n">
+        <v>3751.714285714286</v>
+      </c>
+      <c r="T108" t="n">
+        <v>-1201.664473684211</v>
+      </c>
+      <c r="U108" t="n">
+        <v>1132.394736842105</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2956,7 +8060,54 @@
       <c r="F109" t="n">
         <v>152</v>
       </c>
-      <c r="G109" t="inlineStr"/>
+      <c r="G109" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H109" t="n">
+        <v>8.882808054924441</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>5.008088193338391</v>
+      </c>
+      <c r="K109" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L109" t="n">
+        <v>5.3961446278683</v>
+      </c>
+      <c r="M109" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N109" t="n">
+        <v>3.381710493988659</v>
+      </c>
+      <c r="O109" t="n">
+        <v>6.704414354964107</v>
+      </c>
+      <c r="P109" t="n">
+        <v>3.128605554933964</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R109" t="n">
+        <v>7265.285714285715</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4507.785714285715</v>
+      </c>
+      <c r="T109" t="n">
+        <v>-1192.486842105263</v>
+      </c>
+      <c r="U109" t="n">
+        <v>1143.299342105263</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2979,7 +8130,54 @@
       <c r="F110" t="n">
         <v>152</v>
       </c>
-      <c r="G110" t="inlineStr"/>
+      <c r="G110" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H110" t="n">
+        <v>8.882808054924441</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>5.008088193338391</v>
+      </c>
+      <c r="K110" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L110" t="n">
+        <v>5.3961446278683</v>
+      </c>
+      <c r="M110" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N110" t="n">
+        <v>3.381710493988659</v>
+      </c>
+      <c r="O110" t="n">
+        <v>6.704414354964107</v>
+      </c>
+      <c r="P110" t="n">
+        <v>3.128605554933964</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R110" t="n">
+        <v>7206</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5263.857142857143</v>
+      </c>
+      <c r="T110" t="n">
+        <v>-1183.309210526316</v>
+      </c>
+      <c r="U110" t="n">
+        <v>1156.884868421053</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3002,7 +8200,54 @@
       <c r="F111" t="n">
         <v>152</v>
       </c>
-      <c r="G111" t="inlineStr"/>
+      <c r="G111" t="n">
+        <v>0.005735</v>
+      </c>
+      <c r="H111" t="n">
+        <v>8.762802487446111</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>5.008088193338391</v>
+      </c>
+      <c r="K111" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="L111" t="n">
+        <v>5.3961446278683</v>
+      </c>
+      <c r="M111" t="n">
+        <v>9.904287232706693</v>
+      </c>
+      <c r="N111" t="n">
+        <v>3.381710493988659</v>
+      </c>
+      <c r="O111" t="n">
+        <v>6.704414354964107</v>
+      </c>
+      <c r="P111" t="n">
+        <v>3.128605554933964</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>6.030685260261263</v>
+      </c>
+      <c r="R111" t="n">
+        <v>7206</v>
+      </c>
+      <c r="S111" t="n">
+        <v>6019.928571428572</v>
+      </c>
+      <c r="T111" t="n">
+        <v>-1174.131578947368</v>
+      </c>
+      <c r="U111" t="n">
+        <v>1170.470394736842</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
